--- a/Code/Results/Cases/Case_6_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.22600488255182</v>
+        <v>0.8744664561735078</v>
       </c>
       <c r="C2">
-        <v>0.4736788066188353</v>
+        <v>0.1005204275600988</v>
       </c>
       <c r="D2">
-        <v>0.02947023350485267</v>
+        <v>0.1369348627050897</v>
       </c>
       <c r="E2">
-        <v>0.05174983808499078</v>
+        <v>0.09872589043479962</v>
       </c>
       <c r="F2">
-        <v>1.751184714269527</v>
+        <v>0.8322289111765642</v>
       </c>
       <c r="G2">
-        <v>0.0008136315946539976</v>
+        <v>0.0008183562051933257</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08494790312312972</v>
+        <v>0.1006459152645718</v>
       </c>
       <c r="K2">
-        <v>0.6024513574177348</v>
+        <v>0.8797061543941709</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5939843498318353</v>
+        <v>0.319259986257876</v>
       </c>
       <c r="N2">
-        <v>1.050522303162488</v>
+        <v>0.9434359216015684</v>
       </c>
       <c r="O2">
-        <v>1.178950108312961</v>
+        <v>1.990397344880421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.934167796723415</v>
+        <v>0.7599166591580513</v>
       </c>
       <c r="C3">
-        <v>0.4095621330617689</v>
+        <v>0.08870898189152854</v>
       </c>
       <c r="D3">
-        <v>0.02669029579628912</v>
+        <v>0.1223262258396147</v>
       </c>
       <c r="E3">
-        <v>0.0485652539541821</v>
+        <v>0.09093887533009593</v>
       </c>
       <c r="F3">
-        <v>1.636886993850467</v>
+        <v>0.8066593406379496</v>
       </c>
       <c r="G3">
-        <v>0.0008205548123788201</v>
+        <v>0.0008219814872254843</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08101934404154321</v>
+        <v>0.09541689779285889</v>
       </c>
       <c r="K3">
-        <v>0.5226634084811437</v>
+        <v>0.7641626308916045</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5199363311959857</v>
+        <v>0.2796617561577719</v>
       </c>
       <c r="N3">
-        <v>1.10069194768392</v>
+        <v>0.9875584196276446</v>
       </c>
       <c r="O3">
-        <v>1.103896971380209</v>
+        <v>1.959137628783736</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.757291597436051</v>
+        <v>0.6898294658819566</v>
       </c>
       <c r="C4">
-        <v>0.3706479714094257</v>
+        <v>0.08145010971514921</v>
       </c>
       <c r="D4">
-        <v>0.02499977263759234</v>
+        <v>0.1134437836627313</v>
       </c>
       <c r="E4">
-        <v>0.04667357916177473</v>
+        <v>0.08626037143474719</v>
       </c>
       <c r="F4">
-        <v>1.57010491906064</v>
+        <v>0.7922663481659029</v>
       </c>
       <c r="G4">
-        <v>0.0008249310030444204</v>
+        <v>0.0008242843833695567</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07874642739908921</v>
+        <v>0.09234355441596875</v>
       </c>
       <c r="K4">
-        <v>0.4742872937388256</v>
+        <v>0.6933857764394276</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.475140249052437</v>
+        <v>0.2555132322898963</v>
       </c>
       <c r="N4">
-        <v>1.133129003456318</v>
+        <v>1.01579033357809</v>
       </c>
       <c r="O4">
-        <v>1.060234388193841</v>
+        <v>1.943348529008148</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.685721911824459</v>
+        <v>0.6613196466592512</v>
       </c>
       <c r="C5">
-        <v>0.3548878525865291</v>
+        <v>0.0784895459367192</v>
       </c>
       <c r="D5">
-        <v>0.02431463764093778</v>
+        <v>0.1098445491378897</v>
       </c>
       <c r="E5">
-        <v>0.04591772380184622</v>
+        <v>0.08437830225375009</v>
       </c>
       <c r="F5">
-        <v>1.543681233437326</v>
+        <v>0.7867159988619079</v>
       </c>
       <c r="G5">
-        <v>0.0008267468787322307</v>
+        <v>0.0008252424802390257</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07785299109255206</v>
+        <v>0.09112404129240304</v>
       </c>
       <c r="K5">
-        <v>0.4547080282906322</v>
+        <v>0.6645754009513212</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4570349167782766</v>
+        <v>0.2457096057700312</v>
       </c>
       <c r="N5">
-        <v>1.146742433852019</v>
+        <v>1.027575808645194</v>
       </c>
       <c r="O5">
-        <v>1.043004271385016</v>
+        <v>1.937736209148426</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.673866520138205</v>
+        <v>0.6565884053540572</v>
       </c>
       <c r="C6">
-        <v>0.3522763429631084</v>
+        <v>0.07799777069436686</v>
       </c>
       <c r="D6">
-        <v>0.0242010893782485</v>
+        <v>0.1092480898894053</v>
       </c>
       <c r="E6">
-        <v>0.045793093859265</v>
+        <v>0.08406722425172575</v>
       </c>
       <c r="F6">
-        <v>1.539339570441257</v>
+        <v>0.7858129988753575</v>
       </c>
       <c r="G6">
-        <v>0.0008270503979809218</v>
+        <v>0.0008254027666398472</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07770655557730421</v>
+        <v>0.09092348303002495</v>
       </c>
       <c r="K6">
-        <v>0.4514644657054063</v>
+        <v>0.659793087783541</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4540370367275983</v>
+        <v>0.2440838373804333</v>
       </c>
       <c r="N6">
-        <v>1.149026363145758</v>
+        <v>1.029549562223657</v>
       </c>
       <c r="O6">
-        <v>1.040175931920082</v>
+        <v>1.936852955896853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.756324415973239</v>
+        <v>0.6894447787142894</v>
       </c>
       <c r="C7">
-        <v>0.3704350500449891</v>
+        <v>0.08141019379118575</v>
       </c>
       <c r="D7">
-        <v>0.02499051785504847</v>
+        <v>0.1133951623581879</v>
       </c>
       <c r="E7">
-        <v>0.04666332589025757</v>
+        <v>0.08623489193421463</v>
       </c>
       <c r="F7">
-        <v>1.569745440004141</v>
+        <v>0.792190236791356</v>
       </c>
       <c r="G7">
-        <v>0.0008249553595252759</v>
+        <v>0.0008242972246330961</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07873424823269204</v>
+        <v>0.09232697651985688</v>
       </c>
       <c r="K7">
-        <v>0.4740227221554818</v>
+        <v>0.6929971142481151</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4748954932412062</v>
+        <v>0.2553808726026077</v>
       </c>
       <c r="N7">
-        <v>1.133311018967504</v>
+        <v>1.015948147692205</v>
       </c>
       <c r="O7">
-        <v>1.059999796566217</v>
+        <v>1.943269555654553</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.124853842865093</v>
+        <v>0.8349117534316122</v>
       </c>
       <c r="C8">
-        <v>0.4514669420994153</v>
+        <v>0.09644867573473448</v>
       </c>
       <c r="D8">
-        <v>0.02850809249223119</v>
+        <v>0.1318787371367591</v>
       </c>
       <c r="E8">
-        <v>0.05063795745128807</v>
+        <v>0.09601874848611658</v>
       </c>
       <c r="F8">
-        <v>1.711029967621499</v>
+        <v>0.8231328392642538</v>
       </c>
       <c r="G8">
-        <v>0.0008159933562245223</v>
+        <v>0.0008195904119046971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08356305364017658</v>
+        <v>0.0988134516475867</v>
       </c>
       <c r="K8">
-        <v>0.5748005139263697</v>
+        <v>0.8398256078651514</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5683017290801544</v>
+        <v>0.3055695624347123</v>
       </c>
       <c r="N8">
-        <v>1.067472260049392</v>
+        <v>0.9584089217510323</v>
       </c>
       <c r="O8">
-        <v>1.152540771207256</v>
+        <v>1.978891286053141</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.869494298517566</v>
+        <v>1.122658572970352</v>
       </c>
       <c r="C9">
-        <v>0.6147836599970162</v>
+        <v>0.1259293658879841</v>
       </c>
       <c r="D9">
-        <v>0.0355537478627781</v>
+        <v>0.1688919448137511</v>
       </c>
       <c r="E9">
-        <v>0.05898638308679693</v>
+        <v>0.1160865400932067</v>
       </c>
       <c r="F9">
-        <v>2.018179080315463</v>
+        <v>0.8948338159335947</v>
       </c>
       <c r="G9">
-        <v>0.0007993625967645146</v>
+        <v>0.0008109569112628132</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09424606578735961</v>
+        <v>0.1127005275970276</v>
       </c>
       <c r="K9">
-        <v>0.7782880674270416</v>
+        <v>1.129589604787355</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7577232884754395</v>
+        <v>0.4055116770431866</v>
       </c>
       <c r="N9">
-        <v>0.9520743473896403</v>
+        <v>0.8549076466792913</v>
       </c>
       <c r="O9">
-        <v>1.35547618131298</v>
+        <v>2.077387994592613</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.435512240545847</v>
+        <v>1.336378364589279</v>
       </c>
       <c r="C10">
-        <v>0.738719978554002</v>
+        <v>0.1476483013445744</v>
       </c>
       <c r="D10">
-        <v>0.04084839304235288</v>
+        <v>0.1966642352631709</v>
       </c>
       <c r="E10">
-        <v>0.06553284093248735</v>
+        <v>0.1314664187694952</v>
       </c>
       <c r="F10">
-        <v>2.266991400324585</v>
+        <v>0.955195897583593</v>
       </c>
       <c r="G10">
-        <v>0.000787642314294568</v>
+        <v>0.0008049568660687249</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1030016092352426</v>
+        <v>0.1237298477652686</v>
       </c>
       <c r="K10">
-        <v>0.9328908549103829</v>
+        <v>1.344362776514259</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9021469936241857</v>
+        <v>0.4801876882042819</v>
       </c>
       <c r="N10">
-        <v>0.8768049858921501</v>
+        <v>0.7849655799840027</v>
       </c>
       <c r="O10">
-        <v>1.521120111184331</v>
+        <v>2.169614063561113</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.698508505909217</v>
+        <v>1.434296853699578</v>
       </c>
       <c r="C11">
-        <v>0.7962758822104945</v>
+        <v>0.1575575476031901</v>
       </c>
       <c r="D11">
-        <v>0.04328992643483787</v>
+        <v>0.2094505094645172</v>
       </c>
       <c r="E11">
-        <v>0.06861932657185577</v>
+        <v>0.1386245349577138</v>
       </c>
       <c r="F11">
-        <v>2.386413658195366</v>
+        <v>0.9845524552303999</v>
       </c>
       <c r="G11">
-        <v>0.0007823996132799772</v>
+        <v>0.0008022969522237473</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1072233167943182</v>
+        <v>0.1289540356482277</v>
       </c>
       <c r="K11">
-        <v>1.004714195344675</v>
+        <v>1.442660576080954</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9693520378673952</v>
+        <v>0.5145070762932278</v>
       </c>
       <c r="N11">
-        <v>0.8449195661247444</v>
+        <v>0.7545687850263674</v>
       </c>
       <c r="O11">
-        <v>1.600937623783736</v>
+        <v>2.216450486214143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.79902049493171</v>
+        <v>1.471492680294801</v>
       </c>
       <c r="C12">
-        <v>0.8182697320559384</v>
+        <v>0.1613155052925919</v>
       </c>
       <c r="D12">
-        <v>0.04421988613776762</v>
+        <v>0.2143165470247936</v>
       </c>
       <c r="E12">
-        <v>0.06980542945409596</v>
+        <v>0.1413604252393625</v>
       </c>
       <c r="F12">
-        <v>2.432645487434954</v>
+        <v>0.9959621108057206</v>
       </c>
       <c r="G12">
-        <v>0.0007804253648564571</v>
+        <v>0.0008012992960012742</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1088602019107157</v>
+        <v>0.1309644556404592</v>
       </c>
       <c r="K12">
-        <v>1.032162388518529</v>
+        <v>1.479985096369376</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9950511219108193</v>
+        <v>0.5275597607449498</v>
       </c>
       <c r="N12">
-        <v>0.8332117494485516</v>
+        <v>0.7432713657189609</v>
       </c>
       <c r="O12">
-        <v>1.631886134491239</v>
+        <v>2.234938880604744</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.7773302802388</v>
+        <v>1.463476456265255</v>
       </c>
       <c r="C13">
-        <v>0.813523620849935</v>
+        <v>0.1605058928772394</v>
       </c>
       <c r="D13">
-        <v>0.04401935092154474</v>
+        <v>0.2132674476536067</v>
       </c>
       <c r="E13">
-        <v>0.06954918142478661</v>
+        <v>0.1407700451445884</v>
       </c>
       <c r="F13">
-        <v>2.422641826304186</v>
+        <v>0.9934914732706659</v>
       </c>
       <c r="G13">
-        <v>0.0007808500927658502</v>
+        <v>0.0008015137390517672</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1085059033923201</v>
+        <v>0.1305300069499964</v>
       </c>
       <c r="K13">
-        <v>1.026239191886688</v>
+        <v>1.471941829826591</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9895046738426245</v>
+        <v>0.5247460024696764</v>
       </c>
       <c r="N13">
-        <v>0.8357164595958082</v>
+        <v>0.745694836518342</v>
       </c>
       <c r="O13">
-        <v>1.625187256348639</v>
+        <v>2.230922769691404</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.706758443188505</v>
+        <v>1.437354551320738</v>
       </c>
       <c r="C14">
-        <v>0.7980811667267744</v>
+        <v>0.1578665979129283</v>
       </c>
       <c r="D14">
-        <v>0.04336632239449045</v>
+        <v>0.2098503440067958</v>
       </c>
       <c r="E14">
-        <v>0.06871655039671154</v>
+        <v>0.1388490999275724</v>
       </c>
       <c r="F14">
-        <v>2.390196263966871</v>
+        <v>0.9854851431211102</v>
       </c>
       <c r="G14">
-        <v>0.0007822369799046491</v>
+        <v>0.0008022146845043846</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1073571946703993</v>
+        <v>0.1291187758993217</v>
       </c>
       <c r="K14">
-        <v>1.006967142099697</v>
+        <v>1.44572916426111</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9714611021018555</v>
+        <v>0.5155797537407381</v>
       </c>
       <c r="N14">
-        <v>0.8439488409899454</v>
+        <v>0.7536350135124188</v>
       </c>
       <c r="O14">
-        <v>1.603468781581498</v>
+        <v>2.217956156492363</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.663655150273541</v>
+        <v>1.421369762372677</v>
       </c>
       <c r="C15">
-        <v>0.7886490239406783</v>
+        <v>0.1562507168610665</v>
       </c>
       <c r="D15">
-        <v>0.04296704834998621</v>
+        <v>0.2077604831544733</v>
       </c>
       <c r="E15">
-        <v>0.06820884926727189</v>
+        <v>0.1376758179196926</v>
       </c>
       <c r="F15">
-        <v>2.370457398448195</v>
+        <v>0.9806198066515179</v>
       </c>
       <c r="G15">
-        <v>0.0007830878723469395</v>
+        <v>0.0008026452710857334</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1066586766547388</v>
+        <v>0.1282586142516351</v>
       </c>
       <c r="K15">
-        <v>0.9951961648636996</v>
+        <v>1.429686818342475</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9604425047480802</v>
+        <v>0.5099727434783219</v>
       </c>
       <c r="N15">
-        <v>0.8490400217363359</v>
+        <v>0.7585266405147362</v>
       </c>
       <c r="O15">
-        <v>1.590262356023587</v>
+        <v>2.210113276797784</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.418446390587292</v>
+        <v>1.329994522658211</v>
       </c>
       <c r="C16">
-        <v>0.7349846865770928</v>
+        <v>0.1470014086516045</v>
       </c>
       <c r="D16">
-        <v>0.04068955144610698</v>
+        <v>0.1958318778738146</v>
       </c>
       <c r="E16">
-        <v>0.06533345750732522</v>
+        <v>0.1310020423970606</v>
       </c>
       <c r="F16">
-        <v>2.259321699643891</v>
+        <v>0.953317249112601</v>
       </c>
       <c r="G16">
-        <v>0.0007879865819007951</v>
+        <v>0.0008051320629259808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1027308377473233</v>
+        <v>0.1233927981338852</v>
       </c>
       <c r="K16">
-        <v>0.9282300315736904</v>
+        <v>1.337952086620106</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8977880661735753</v>
+        <v>0.4779524022539121</v>
       </c>
       <c r="N16">
-        <v>0.8789384724884499</v>
+        <v>0.7869814131968216</v>
       </c>
       <c r="O16">
-        <v>1.516000445462637</v>
+        <v>2.166655669098958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.269517545708936</v>
+        <v>1.274128212897125</v>
       </c>
       <c r="C17">
-        <v>0.7023846687085324</v>
+        <v>0.1413356573940092</v>
       </c>
       <c r="D17">
-        <v>0.03930127310495379</v>
+        <v>0.1885546646445562</v>
       </c>
       <c r="E17">
-        <v>0.0635984480423204</v>
+        <v>0.1269507106109167</v>
       </c>
       <c r="F17">
-        <v>2.192817035513755</v>
+        <v>0.937067910342364</v>
       </c>
       <c r="G17">
-        <v>0.0007910133738242529</v>
+        <v>0.0008066751591609117</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1003850235401273</v>
+        <v>0.1204624144262496</v>
       </c>
       <c r="K17">
-        <v>0.887555090817699</v>
+        <v>1.281839250084857</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8597599856721487</v>
+        <v>0.458402811623948</v>
       </c>
       <c r="N17">
-        <v>0.8979022362332998</v>
+        <v>0.8048074393705917</v>
       </c>
       <c r="O17">
-        <v>1.471641891184177</v>
+        <v>2.141281121352506</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.184367948966496</v>
+        <v>1.242059898710863</v>
       </c>
       <c r="C18">
-        <v>0.6837428020801042</v>
+        <v>0.1380795284001977</v>
       </c>
       <c r="D18">
-        <v>0.03850583159361776</v>
+        <v>0.1843832187643528</v>
       </c>
       <c r="E18">
-        <v>0.06261061313008298</v>
+        <v>0.1246355868983322</v>
       </c>
       <c r="F18">
-        <v>2.155144884908751</v>
+        <v>0.9278990468238248</v>
       </c>
       <c r="G18">
-        <v>0.0007927627876464775</v>
+        <v>0.0008075692780085812</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09905799153168715</v>
+        <v>0.1187962574975359</v>
       </c>
       <c r="K18">
-        <v>0.8642982005685127</v>
+        <v>1.249619774809901</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8380267849643985</v>
+        <v>0.4471908287443256</v>
       </c>
       <c r="N18">
-        <v>0.9090295138244144</v>
+        <v>0.8151936041441514</v>
       </c>
       <c r="O18">
-        <v>1.446542953459868</v>
+        <v>2.127142690674162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.155621719904786</v>
+        <v>1.231212725676329</v>
       </c>
       <c r="C19">
-        <v>0.6774488282740663</v>
+        <v>0.1369774769387249</v>
       </c>
       <c r="D19">
-        <v>0.03823701530605206</v>
+        <v>0.1829732148860046</v>
       </c>
       <c r="E19">
-        <v>0.06227783376309048</v>
+        <v>0.1238542592453022</v>
       </c>
       <c r="F19">
-        <v>2.142486054452704</v>
+        <v>0.9248244920610631</v>
       </c>
       <c r="G19">
-        <v>0.0007933566160842365</v>
+        <v>0.0008078731517234327</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09861238568233688</v>
+        <v>0.1182353739538158</v>
       </c>
       <c r="K19">
-        <v>0.8564465454375352</v>
+        <v>1.23871983019211</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8306913029841851</v>
+        <v>0.4434000218696283</v>
       </c>
       <c r="N19">
-        <v>0.912833974439387</v>
+        <v>0.8187327784070906</v>
       </c>
       <c r="O19">
-        <v>1.4381138159969</v>
+        <v>2.122432556279961</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.285317571604594</v>
+        <v>1.280068487385392</v>
       </c>
       <c r="C20">
-        <v>0.7058435327455754</v>
+        <v>0.141938501463116</v>
       </c>
       <c r="D20">
-        <v>0.03944873651012415</v>
+        <v>0.1893278496142017</v>
       </c>
       <c r="E20">
-        <v>0.06378208590328072</v>
+        <v>0.127380405352902</v>
       </c>
       <c r="F20">
-        <v>2.199835811197076</v>
+        <v>0.9387791861895067</v>
       </c>
       <c r="G20">
-        <v>0.000790690300782197</v>
+        <v>0.0008065102168060552</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1006324131556227</v>
+        <v>0.1207723422338489</v>
       </c>
       <c r="K20">
-        <v>0.8918704538201752</v>
+        <v>1.287806741218247</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.863793466615931</v>
+        <v>0.4604804973778869</v>
       </c>
       <c r="N20">
-        <v>0.895860568482</v>
+        <v>0.8028959894009242</v>
       </c>
       <c r="O20">
-        <v>1.476320431038133</v>
+        <v>2.143934701672606</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.727461012514595</v>
+        <v>1.445023899972568</v>
       </c>
       <c r="C21">
-        <v>0.8026113459734745</v>
+        <v>0.1586416611954604</v>
       </c>
       <c r="D21">
-        <v>0.04355798036134217</v>
+        <v>0.2108533562590935</v>
       </c>
       <c r="E21">
-        <v>0.0689606297034473</v>
+        <v>0.1394126256907455</v>
       </c>
       <c r="F21">
-        <v>2.399697964261676</v>
+        <v>0.9878286785588983</v>
       </c>
       <c r="G21">
-        <v>0.0007818293323213518</v>
+        <v>0.0008020085427657732</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1076935280577942</v>
+        <v>0.129532396802972</v>
       </c>
       <c r="K21">
-        <v>1.012620716278406</v>
+        <v>1.453425581746984</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.976753866991622</v>
+        <v>0.518270510905829</v>
       </c>
       <c r="N21">
-        <v>0.8415206066290537</v>
+        <v>0.7512969308588904</v>
       </c>
       <c r="O21">
-        <v>1.609827699866173</v>
+        <v>2.221743925227344</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.021865843162743</v>
+        <v>1.55351750805201</v>
       </c>
       <c r="C22">
-        <v>0.8670289683620638</v>
+        <v>0.1695911421957561</v>
       </c>
       <c r="D22">
-        <v>0.04627547454790459</v>
+        <v>0.2250634372607152</v>
       </c>
       <c r="E22">
-        <v>0.07244698197234101</v>
+        <v>0.1474246816053864</v>
       </c>
       <c r="F22">
-        <v>2.536263386574035</v>
+        <v>1.02160328541359</v>
       </c>
       <c r="G22">
-        <v>0.0007761016348545735</v>
+        <v>0.0007991221635835551</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1125332438681284</v>
+        <v>0.1354461186328635</v>
       </c>
       <c r="K22">
-        <v>1.093016063436764</v>
+        <v>1.562265400748316</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.052055431460282</v>
+        <v>0.5563733301569371</v>
       </c>
       <c r="N22">
-        <v>0.8081578256536091</v>
+        <v>0.7188211713347066</v>
       </c>
       <c r="O22">
-        <v>1.701343145427217</v>
+        <v>2.277008515595298</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.864192590891889</v>
+        <v>1.495544069748263</v>
       </c>
       <c r="C23">
-        <v>0.8325299770897914</v>
+        <v>0.1637437062643272</v>
       </c>
       <c r="D23">
-        <v>0.04482194069033341</v>
+        <v>0.2174654922704065</v>
       </c>
       <c r="E23">
-        <v>0.07057631175551649</v>
+        <v>0.1431342278822747</v>
       </c>
       <c r="F23">
-        <v>2.462791485213458</v>
+        <v>1.0034129562966</v>
       </c>
       <c r="G23">
-        <v>0.0007791534313333212</v>
+        <v>0.0008006577192889416</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1099282252751053</v>
+        <v>0.1322717753793157</v>
       </c>
       <c r="K23">
-        <v>1.049959536598848</v>
+        <v>1.504115373443085</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.011718534563769</v>
+        <v>0.5360043360479807</v>
       </c>
       <c r="N23">
-        <v>0.8257572555059696</v>
+        <v>0.7360368586706425</v>
       </c>
       <c r="O23">
-        <v>1.652080494209343</v>
+        <v>2.247091541907992</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.278172920558973</v>
+        <v>1.277382734842661</v>
       </c>
       <c r="C24">
-        <v>0.7042794700318211</v>
+        <v>0.1416659520627235</v>
       </c>
       <c r="D24">
-        <v>0.03938205994933952</v>
+        <v>0.1889782544786982</v>
       </c>
       <c r="E24">
-        <v>0.06369903331163229</v>
+        <v>0.1271860967762493</v>
       </c>
       <c r="F24">
-        <v>2.196660879719502</v>
+        <v>0.9380049807222548</v>
       </c>
       <c r="G24">
-        <v>0.0007908363331705159</v>
+        <v>0.0008065847655599478</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1005205012950228</v>
+        <v>0.1206321662410161</v>
       </c>
       <c r="K24">
-        <v>0.8899190831575794</v>
+        <v>1.285108713357346</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8619695285334359</v>
+        <v>0.4595410909858515</v>
       </c>
       <c r="N24">
-        <v>0.8967829084712378</v>
+        <v>0.8037597275588819</v>
       </c>
       <c r="O24">
-        <v>1.474204012741509</v>
+        <v>2.142733620956818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.665158219655439</v>
+        <v>1.044470017037952</v>
       </c>
       <c r="C25">
-        <v>0.5700074449223393</v>
+        <v>0.1179486297314298</v>
       </c>
       <c r="D25">
-        <v>0.03362917491273265</v>
+        <v>0.1587856967544354</v>
       </c>
       <c r="E25">
-        <v>0.0566612531677535</v>
+        <v>0.110553450601536</v>
       </c>
       <c r="F25">
-        <v>1.931397409464381</v>
+        <v>0.8741607548691661</v>
       </c>
       <c r="G25">
-        <v>0.0008037681686818898</v>
+        <v>0.0008132307121856261</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09120981863583921</v>
+        <v>0.1088073022292093</v>
       </c>
       <c r="K25">
-        <v>0.7224629457797462</v>
+        <v>1.050928358448658</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7056696069295754</v>
+        <v>0.3782798175665505</v>
       </c>
       <c r="N25">
-        <v>0.9817124561686725</v>
+        <v>0.8818674805058153</v>
       </c>
       <c r="O25">
-        <v>1.297941740938853</v>
+        <v>2.047436754985512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8744664561735078</v>
+        <v>0.7427089193290328</v>
       </c>
       <c r="C2">
-        <v>0.1005204275600988</v>
+        <v>0.1384091977730293</v>
       </c>
       <c r="D2">
-        <v>0.1369348627050897</v>
+        <v>0.1804155142003623</v>
       </c>
       <c r="E2">
-        <v>0.09872589043479962</v>
+        <v>0.111100621559185</v>
       </c>
       <c r="F2">
-        <v>0.8322289111765642</v>
+        <v>0.5935242070488158</v>
       </c>
       <c r="G2">
-        <v>0.0008183562051933257</v>
+        <v>0.3249771715799454</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005462908493418794</v>
       </c>
       <c r="J2">
-        <v>0.1006459152645718</v>
+        <v>0.3023624200743669</v>
       </c>
       <c r="K2">
-        <v>0.8797061543941709</v>
+        <v>0.2751631175967475</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09836422796941235</v>
       </c>
       <c r="M2">
-        <v>0.319259986257876</v>
+        <v>0.8155931878624187</v>
       </c>
       <c r="N2">
-        <v>0.9434359216015684</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.990397344880421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3094389309945527</v>
+      </c>
+      <c r="P2">
+        <v>0.833103398488813</v>
+      </c>
+      <c r="Q2">
+        <v>1.269529905423184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7599166591580513</v>
+        <v>0.6467994806207855</v>
       </c>
       <c r="C3">
-        <v>0.08870898189152854</v>
+        <v>0.1228639137456753</v>
       </c>
       <c r="D3">
-        <v>0.1223262258396147</v>
+        <v>0.1622679600507979</v>
       </c>
       <c r="E3">
-        <v>0.09093887533009593</v>
+        <v>0.1026110099040949</v>
       </c>
       <c r="F3">
-        <v>0.8066593406379496</v>
+        <v>0.5769081271175622</v>
       </c>
       <c r="G3">
-        <v>0.0008219814872254843</v>
+        <v>0.3184189845441381</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0008504660075789872</v>
       </c>
       <c r="J3">
-        <v>0.09541689779285889</v>
+        <v>0.3036419588177779</v>
       </c>
       <c r="K3">
-        <v>0.7641626308916045</v>
+        <v>0.2785621028222778</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09342052649426336</v>
       </c>
       <c r="M3">
-        <v>0.2796617561577719</v>
+        <v>0.7117864432669876</v>
       </c>
       <c r="N3">
-        <v>0.9875584196276446</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.959137628783736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2705765630334263</v>
+      </c>
+      <c r="P3">
+        <v>0.8605457429983723</v>
+      </c>
+      <c r="Q3">
+        <v>1.25802577125053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6898294658819566</v>
+        <v>0.5875819708821268</v>
       </c>
       <c r="C4">
-        <v>0.08145010971514921</v>
+        <v>0.1134366294787981</v>
       </c>
       <c r="D4">
-        <v>0.1134437836627313</v>
+        <v>0.1512807595236723</v>
       </c>
       <c r="E4">
-        <v>0.08626037143474719</v>
+        <v>0.09751808665986772</v>
       </c>
       <c r="F4">
-        <v>0.7922663481659029</v>
+        <v>0.5673716113373857</v>
       </c>
       <c r="G4">
-        <v>0.0008242843833695567</v>
+        <v>0.3148049799524699</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001189812198119089</v>
       </c>
       <c r="J4">
-        <v>0.09234355441596875</v>
+        <v>0.3047130321513123</v>
       </c>
       <c r="K4">
-        <v>0.6933857764394276</v>
+        <v>0.280897283435193</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09050971425649834</v>
       </c>
       <c r="M4">
-        <v>0.2555132322898963</v>
+        <v>0.6479648080200491</v>
       </c>
       <c r="N4">
-        <v>1.01579033357809</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.943348529008148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2468032472217985</v>
+      </c>
+      <c r="P4">
+        <v>0.8781220243974897</v>
+      </c>
+      <c r="Q4">
+        <v>1.2524272090252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6613196466592512</v>
+        <v>0.5627907221162047</v>
       </c>
       <c r="C5">
-        <v>0.0784895459367192</v>
+        <v>0.1099345079007605</v>
       </c>
       <c r="D5">
-        <v>0.1098445491378897</v>
+        <v>0.1469122875485596</v>
       </c>
       <c r="E5">
-        <v>0.08437830225375009</v>
+        <v>0.09548406748966798</v>
       </c>
       <c r="F5">
-        <v>0.7867159988619079</v>
+        <v>0.563338470830999</v>
       </c>
       <c r="G5">
-        <v>0.0008252424802390257</v>
+        <v>0.3131750440237155</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001435329299984911</v>
       </c>
       <c r="J5">
-        <v>0.09112404129240304</v>
+        <v>0.3050863282618934</v>
       </c>
       <c r="K5">
-        <v>0.6645754009513212</v>
+        <v>0.2816904472321031</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08934128747613812</v>
       </c>
       <c r="M5">
-        <v>0.2457096057700312</v>
+        <v>0.6219612448912102</v>
       </c>
       <c r="N5">
-        <v>1.027575808645194</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.937736209148426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2371611707081485</v>
+      </c>
+      <c r="P5">
+        <v>0.8854925752886178</v>
+      </c>
+      <c r="Q5">
+        <v>1.249678015465193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6565884053540572</v>
+        <v>0.5579639676385</v>
       </c>
       <c r="C6">
-        <v>0.07799777069436686</v>
+        <v>0.1097385099690484</v>
       </c>
       <c r="D6">
-        <v>0.1092480898894053</v>
+        <v>0.1462769817521519</v>
       </c>
       <c r="E6">
-        <v>0.08406722425172575</v>
+        <v>0.09516347512731116</v>
       </c>
       <c r="F6">
-        <v>0.7858129988753575</v>
+        <v>0.5623009124370739</v>
       </c>
       <c r="G6">
-        <v>0.0008254027666398472</v>
+        <v>0.3125960488989605</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001571758533976286</v>
       </c>
       <c r="J6">
-        <v>0.09092348303002495</v>
+        <v>0.3049895168683037</v>
       </c>
       <c r="K6">
-        <v>0.659793087783541</v>
+        <v>0.2815578972341406</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08913399375662223</v>
       </c>
       <c r="M6">
-        <v>0.2440838373804333</v>
+        <v>0.6176778202413118</v>
       </c>
       <c r="N6">
-        <v>1.029549562223657</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.936852955896853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2355932011245727</v>
+      </c>
+      <c r="P6">
+        <v>0.8867641331322975</v>
+      </c>
+      <c r="Q6">
+        <v>1.248234897630311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6894447787142894</v>
+        <v>0.5853152852723156</v>
       </c>
       <c r="C7">
-        <v>0.08141019379118575</v>
+        <v>0.1144396642254009</v>
       </c>
       <c r="D7">
-        <v>0.1133951623581879</v>
+        <v>0.1514619015783438</v>
       </c>
       <c r="E7">
-        <v>0.08623489193421463</v>
+        <v>0.09753276141369582</v>
       </c>
       <c r="F7">
-        <v>0.792190236791356</v>
+        <v>0.5662861149958687</v>
       </c>
       <c r="G7">
-        <v>0.0008242972246330961</v>
+        <v>0.313924660110537</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00143295345442862</v>
       </c>
       <c r="J7">
-        <v>0.09232697651985688</v>
+        <v>0.3042734857343277</v>
       </c>
       <c r="K7">
-        <v>0.6929971142481151</v>
+        <v>0.2801771310321683</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09045273912330742</v>
       </c>
       <c r="M7">
-        <v>0.2553808726026077</v>
+        <v>0.6477127599104335</v>
       </c>
       <c r="N7">
-        <v>1.015948147692205</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.943269555654553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2467603356865027</v>
+      </c>
+      <c r="P7">
+        <v>0.878332511714266</v>
+      </c>
+      <c r="Q7">
+        <v>1.249638779420536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8349117534316122</v>
+        <v>0.707123253669522</v>
       </c>
       <c r="C8">
-        <v>0.09644867573473448</v>
+        <v>0.1344253194099849</v>
       </c>
       <c r="D8">
-        <v>0.1318787371367591</v>
+        <v>0.1744435378281395</v>
       </c>
       <c r="E8">
-        <v>0.09601874848611658</v>
+        <v>0.1082036487110436</v>
       </c>
       <c r="F8">
-        <v>0.8231328392642538</v>
+        <v>0.5862921298950283</v>
       </c>
       <c r="G8">
-        <v>0.0008195904119046971</v>
+        <v>0.3214952440552707</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0009066511425315227</v>
       </c>
       <c r="J8">
-        <v>0.0988134516475867</v>
+        <v>0.3021593735768491</v>
       </c>
       <c r="K8">
-        <v>0.8398256078651514</v>
+        <v>0.2753225472824887</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0965786725752622</v>
       </c>
       <c r="M8">
-        <v>0.3055695624347123</v>
+        <v>0.7799456437251138</v>
       </c>
       <c r="N8">
-        <v>0.9584089217510323</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.978891286053141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2961339909517164</v>
+      </c>
+      <c r="P8">
+        <v>0.8426084904054996</v>
+      </c>
+      <c r="Q8">
+        <v>1.261627266563409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.122658572970352</v>
+        <v>0.9469341449467947</v>
       </c>
       <c r="C9">
-        <v>0.1259293658879841</v>
+        <v>0.1727766367127685</v>
       </c>
       <c r="D9">
-        <v>0.1688919448137511</v>
+        <v>0.2204062448981148</v>
       </c>
       <c r="E9">
-        <v>0.1160865400932067</v>
+        <v>0.1300675557018458</v>
       </c>
       <c r="F9">
-        <v>0.8948338159335947</v>
+        <v>0.6329221031969681</v>
       </c>
       <c r="G9">
-        <v>0.0008109569112628132</v>
+        <v>0.3413349160802781</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007975339154846495</v>
       </c>
       <c r="J9">
-        <v>0.1127005275970276</v>
+        <v>0.3011450649586394</v>
       </c>
       <c r="K9">
-        <v>1.129589604787355</v>
+        <v>0.269138560960009</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1097150700840714</v>
       </c>
       <c r="M9">
-        <v>0.4055116770431866</v>
+        <v>1.038620464615491</v>
       </c>
       <c r="N9">
-        <v>0.8549076466792913</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.077387994592613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.39362879092333</v>
+      </c>
+      <c r="P9">
+        <v>0.7782121810957747</v>
+      </c>
+      <c r="Q9">
+        <v>1.302221166565602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.336378364589279</v>
+        <v>1.120666184818305</v>
       </c>
       <c r="C10">
-        <v>0.1476483013445744</v>
+        <v>0.2023255991018544</v>
       </c>
       <c r="D10">
-        <v>0.1966642352631709</v>
+        <v>0.2552429778477858</v>
       </c>
       <c r="E10">
-        <v>0.1314664187694952</v>
+        <v>0.1468641215019169</v>
       </c>
       <c r="F10">
-        <v>0.955195897583593</v>
+        <v>0.6704661198177035</v>
       </c>
       <c r="G10">
-        <v>0.0008049568660687249</v>
+        <v>0.3578762207647372</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001731208841990295</v>
       </c>
       <c r="J10">
-        <v>0.1237298477652686</v>
+        <v>0.301728266765565</v>
       </c>
       <c r="K10">
-        <v>1.344362776514259</v>
+        <v>0.2655892717151787</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.120075665191159</v>
       </c>
       <c r="M10">
-        <v>0.4801876882042819</v>
+        <v>1.228762510314397</v>
       </c>
       <c r="N10">
-        <v>0.7849655799840027</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.169614063561113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4659975108432022</v>
+      </c>
+      <c r="P10">
+        <v>0.7348974889068103</v>
+      </c>
+      <c r="Q10">
+        <v>1.338956973010539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.434296853699578</v>
+        <v>1.196128324322956</v>
       </c>
       <c r="C11">
-        <v>0.1575575476031901</v>
+        <v>0.2177839585311006</v>
       </c>
       <c r="D11">
-        <v>0.2094505094645172</v>
+        <v>0.2717263970270096</v>
       </c>
       <c r="E11">
-        <v>0.1386245349577138</v>
+        <v>0.1547509173322865</v>
       </c>
       <c r="F11">
-        <v>0.9845524552303999</v>
+        <v>0.6867917072185108</v>
       </c>
       <c r="G11">
-        <v>0.0008022969522237473</v>
+        <v>0.3645974100539249</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002750119471683021</v>
       </c>
       <c r="J11">
-        <v>0.1289540356482277</v>
+        <v>0.3016491018819067</v>
       </c>
       <c r="K11">
-        <v>1.442660576080954</v>
+        <v>0.2631350810920381</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1249011439893195</v>
       </c>
       <c r="M11">
-        <v>0.5145070762932278</v>
+        <v>1.315507160150133</v>
       </c>
       <c r="N11">
-        <v>0.7545687850263674</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.216450486214143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4992546970357878</v>
+      </c>
+      <c r="P11">
+        <v>0.7165144758537885</v>
+      </c>
+      <c r="Q11">
+        <v>1.353235525245509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.471492680294801</v>
+        <v>1.226398940488167</v>
       </c>
       <c r="C12">
-        <v>0.1613155052925919</v>
+        <v>0.2227264336807337</v>
       </c>
       <c r="D12">
-        <v>0.2143165470247936</v>
+        <v>0.2777942622940799</v>
       </c>
       <c r="E12">
-        <v>0.1413604252393625</v>
+        <v>0.1577279669537148</v>
       </c>
       <c r="F12">
-        <v>0.9959621108057206</v>
+        <v>0.6940039578300272</v>
       </c>
       <c r="G12">
-        <v>0.0008012992960012742</v>
+        <v>0.3679703295223504</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002973680435636616</v>
       </c>
       <c r="J12">
-        <v>0.1309644556404592</v>
+        <v>0.3020507133740722</v>
       </c>
       <c r="K12">
-        <v>1.479985096369376</v>
+        <v>0.2628709176068682</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1267916854571283</v>
       </c>
       <c r="M12">
-        <v>0.5275597607449498</v>
+        <v>1.348290722804279</v>
       </c>
       <c r="N12">
-        <v>0.7432713657189609</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.234938880604744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5118066912152415</v>
+      </c>
+      <c r="P12">
+        <v>0.7094820319296211</v>
+      </c>
+      <c r="Q12">
+        <v>1.361300216941089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.463476456265255</v>
+        <v>1.22023139601481</v>
       </c>
       <c r="C13">
-        <v>0.1605058928772394</v>
+        <v>0.2214686426381292</v>
       </c>
       <c r="D13">
-        <v>0.2132674476536067</v>
+        <v>0.2764432411395603</v>
       </c>
       <c r="E13">
-        <v>0.1407700451445884</v>
+        <v>0.1570781645578023</v>
       </c>
       <c r="F13">
-        <v>0.9934914732706659</v>
+        <v>0.6926231647743464</v>
       </c>
       <c r="G13">
-        <v>0.0008015137390517672</v>
+        <v>0.3673881369168583</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002881804486160711</v>
       </c>
       <c r="J13">
-        <v>0.1305300069499964</v>
+        <v>0.302037412034494</v>
       </c>
       <c r="K13">
-        <v>1.471941829826591</v>
+        <v>0.263049351734189</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.126390441249626</v>
       </c>
       <c r="M13">
-        <v>0.5247460024696764</v>
+        <v>1.341212428296927</v>
       </c>
       <c r="N13">
-        <v>0.745694836518342</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.230922769691404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5090870853660263</v>
+      </c>
+      <c r="P13">
+        <v>0.7109465396247465</v>
+      </c>
+      <c r="Q13">
+        <v>1.360022450244003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.437354551320738</v>
+        <v>1.198768071170747</v>
       </c>
       <c r="C14">
-        <v>0.1578665979129283</v>
+        <v>0.2181084213076616</v>
       </c>
       <c r="D14">
-        <v>0.2098503440067958</v>
+        <v>0.2722067887243185</v>
       </c>
       <c r="E14">
-        <v>0.1388490999275724</v>
+        <v>0.1549921398471845</v>
       </c>
       <c r="F14">
-        <v>0.9854851431211102</v>
+        <v>0.687458196649402</v>
       </c>
       <c r="G14">
-        <v>0.0008022146845043846</v>
+        <v>0.3649360813172677</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002749584578277897</v>
       </c>
       <c r="J14">
-        <v>0.1291187758993217</v>
+        <v>0.3017131910158639</v>
       </c>
       <c r="K14">
-        <v>1.44572916426111</v>
+        <v>0.2631649447497111</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1250591641558785</v>
       </c>
       <c r="M14">
-        <v>0.5155797537407381</v>
+        <v>1.318196707867173</v>
       </c>
       <c r="N14">
-        <v>0.7536350135124188</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.217956156492363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5002803885202169</v>
+      </c>
+      <c r="P14">
+        <v>0.7159146823969174</v>
+      </c>
+      <c r="Q14">
+        <v>1.354093764992484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.421369762372677</v>
+        <v>1.184927960336807</v>
       </c>
       <c r="C15">
-        <v>0.1562507168610665</v>
+        <v>0.2164325333605888</v>
       </c>
       <c r="D15">
-        <v>0.2077604831544733</v>
+        <v>0.2697004503251321</v>
       </c>
       <c r="E15">
-        <v>0.1376758179196926</v>
+        <v>0.1537325738902808</v>
       </c>
       <c r="F15">
-        <v>0.9806198066515179</v>
+        <v>0.6839607793717022</v>
       </c>
       <c r="G15">
-        <v>0.0008026452710857334</v>
+        <v>0.3631539316596175</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002760470867393394</v>
       </c>
       <c r="J15">
-        <v>0.1282586142516351</v>
+        <v>0.3013726780784438</v>
       </c>
       <c r="K15">
-        <v>1.429686818342475</v>
+        <v>0.2629984054169263</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1242332393766929</v>
       </c>
       <c r="M15">
-        <v>0.5099727434783219</v>
+        <v>1.304134828675842</v>
       </c>
       <c r="N15">
-        <v>0.7585266405147362</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.210113276797784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4949195804662452</v>
+      </c>
+      <c r="P15">
+        <v>0.7190606187475055</v>
+      </c>
+      <c r="Q15">
+        <v>1.349570865593989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.329994522658211</v>
+        <v>1.109940013402593</v>
       </c>
       <c r="C16">
-        <v>0.1470014086516045</v>
+        <v>0.2044857693266948</v>
       </c>
       <c r="D16">
-        <v>0.1958318778738146</v>
+        <v>0.2548755151684503</v>
       </c>
       <c r="E16">
-        <v>0.1310020423970606</v>
+        <v>0.1464752499732356</v>
       </c>
       <c r="F16">
-        <v>0.953317249112601</v>
+        <v>0.6664471033582231</v>
       </c>
       <c r="G16">
-        <v>0.0008051320629259808</v>
+        <v>0.3549842181576466</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0023536766670329</v>
       </c>
       <c r="J16">
-        <v>0.1233927981338852</v>
+        <v>0.3004814561328359</v>
       </c>
       <c r="K16">
-        <v>1.337952086620106</v>
+        <v>0.2636949918081548</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1196450275428731</v>
       </c>
       <c r="M16">
-        <v>0.4779524022539121</v>
+        <v>1.223376665807393</v>
       </c>
       <c r="N16">
-        <v>0.7869814131968216</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.166655669098958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4640754764689845</v>
+      </c>
+      <c r="P16">
+        <v>0.7368027388980778</v>
+      </c>
+      <c r="Q16">
+        <v>1.33020142794058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.274128212897125</v>
+        <v>1.063892270872458</v>
       </c>
       <c r="C17">
-        <v>0.1413356573940092</v>
+        <v>0.1972029332307841</v>
       </c>
       <c r="D17">
-        <v>0.1885546646445562</v>
+        <v>0.2458407577800585</v>
       </c>
       <c r="E17">
-        <v>0.1269507106109167</v>
+        <v>0.1420691578091109</v>
       </c>
       <c r="F17">
-        <v>0.937067910342364</v>
+        <v>0.6559568206006219</v>
       </c>
       <c r="G17">
-        <v>0.0008066751591609117</v>
+        <v>0.3501362336913658</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002169048080201463</v>
       </c>
       <c r="J17">
-        <v>0.1204624144262496</v>
+        <v>0.3000343193434674</v>
       </c>
       <c r="K17">
-        <v>1.281839250084857</v>
+        <v>0.2642136365895453</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1168780261915714</v>
       </c>
       <c r="M17">
-        <v>0.458402811623948</v>
+        <v>1.173860703709011</v>
       </c>
       <c r="N17">
-        <v>0.8048074393705917</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.141281121352506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4452059414373579</v>
+      </c>
+      <c r="P17">
+        <v>0.7479144177394552</v>
+      </c>
+      <c r="Q17">
+        <v>1.318872904987643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.242059898710863</v>
+        <v>1.03913490995302</v>
       </c>
       <c r="C18">
-        <v>0.1380795284001977</v>
+        <v>0.1920684457106461</v>
       </c>
       <c r="D18">
-        <v>0.1843832187643528</v>
+        <v>0.2404518631384605</v>
       </c>
       <c r="E18">
-        <v>0.1246355868983322</v>
+        <v>0.139513983158416</v>
       </c>
       <c r="F18">
-        <v>0.9278990468238248</v>
+        <v>0.6509130459491459</v>
       </c>
       <c r="G18">
-        <v>0.0008075692780085812</v>
+        <v>0.3481518385203231</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001840087260987389</v>
       </c>
       <c r="J18">
-        <v>0.1187962574975359</v>
+        <v>0.3001946019934749</v>
       </c>
       <c r="K18">
-        <v>1.249619774809901</v>
+        <v>0.2651679033780283</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1153395307141523</v>
       </c>
       <c r="M18">
-        <v>0.4471908287443256</v>
+        <v>1.145302638211092</v>
       </c>
       <c r="N18">
-        <v>0.8151936041441514</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.127142690674162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4342955857588464</v>
+      </c>
+      <c r="P18">
+        <v>0.7541862529204906</v>
+      </c>
+      <c r="Q18">
+        <v>1.314935304333702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.231212725676329</v>
+        <v>1.029402692546199</v>
       </c>
       <c r="C19">
-        <v>0.1369774769387249</v>
+        <v>0.1910738875302798</v>
       </c>
       <c r="D19">
-        <v>0.1829732148860046</v>
+        <v>0.2387955138429874</v>
       </c>
       <c r="E19">
-        <v>0.1238542592453022</v>
+        <v>0.1386803205671434</v>
       </c>
       <c r="F19">
-        <v>0.9248244920610631</v>
+        <v>0.6485268333577636</v>
       </c>
       <c r="G19">
-        <v>0.0008078731517234327</v>
+        <v>0.346914539329795</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001918801403173021</v>
       </c>
       <c r="J19">
-        <v>0.1182353739538158</v>
+        <v>0.2999605523976285</v>
       </c>
       <c r="K19">
-        <v>1.23871983019211</v>
+        <v>0.2650157562115893</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1147936784237942</v>
       </c>
       <c r="M19">
-        <v>0.4434000218696283</v>
+        <v>1.135700531661115</v>
       </c>
       <c r="N19">
-        <v>0.8187327784070906</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.122432556279961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4306624733941433</v>
+      </c>
+      <c r="P19">
+        <v>0.7564791400308906</v>
+      </c>
+      <c r="Q19">
+        <v>1.311799349958022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.280068487385392</v>
+        <v>1.068933035973942</v>
       </c>
       <c r="C20">
-        <v>0.141938501463116</v>
+        <v>0.1979009352662757</v>
       </c>
       <c r="D20">
-        <v>0.1893278496142017</v>
+        <v>0.2467835483500238</v>
       </c>
       <c r="E20">
-        <v>0.127380405352902</v>
+        <v>0.1425335669990773</v>
       </c>
       <c r="F20">
-        <v>0.9387791861895067</v>
+        <v>0.6571346590109499</v>
       </c>
       <c r="G20">
-        <v>0.0008065102168060552</v>
+        <v>0.3507047200942282</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002166776052471953</v>
       </c>
       <c r="J20">
-        <v>0.1207723422338489</v>
+        <v>0.3001081170923428</v>
       </c>
       <c r="K20">
-        <v>1.287806741218247</v>
+        <v>0.2642038501421347</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1171736389816971</v>
       </c>
       <c r="M20">
-        <v>0.4604804973778869</v>
+        <v>1.179124200414748</v>
       </c>
       <c r="N20">
-        <v>0.8028959894009242</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.143934701672606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.447206849329298</v>
+      </c>
+      <c r="P20">
+        <v>0.7467068960946754</v>
+      </c>
+      <c r="Q20">
+        <v>1.320244911064535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.445023899972568</v>
+        <v>1.2031117361432</v>
       </c>
       <c r="C21">
-        <v>0.1586416611954604</v>
+        <v>0.2201710609593874</v>
       </c>
       <c r="D21">
-        <v>0.2108533562590935</v>
+        <v>0.273688624137705</v>
       </c>
       <c r="E21">
-        <v>0.1394126256907455</v>
+        <v>0.1556456148696981</v>
       </c>
       <c r="F21">
-        <v>0.9878286785588983</v>
+        <v>0.687968357271032</v>
       </c>
       <c r="G21">
-        <v>0.0008020085427657732</v>
+        <v>0.3648224192235929</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003036323946660424</v>
       </c>
       <c r="J21">
-        <v>0.129532396802972</v>
+        <v>0.3013826476038872</v>
       </c>
       <c r="K21">
-        <v>1.453425581746984</v>
+        <v>0.26243649891871</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1254091897916467</v>
       </c>
       <c r="M21">
-        <v>0.518270510905829</v>
+        <v>1.325050860129465</v>
       </c>
       <c r="N21">
-        <v>0.7512969308588904</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.221743925227344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5029494124330114</v>
+      </c>
+      <c r="P21">
+        <v>0.7146981357699183</v>
+      </c>
+      <c r="Q21">
+        <v>1.353175566612379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.55351750805201</v>
+        <v>1.293158564081978</v>
       </c>
       <c r="C22">
-        <v>0.1695911421957561</v>
+        <v>0.2335216875141271</v>
       </c>
       <c r="D22">
-        <v>0.2250634372607152</v>
+        <v>0.2911760281327815</v>
       </c>
       <c r="E22">
-        <v>0.1474246816053864</v>
+        <v>0.1643204553914259</v>
       </c>
       <c r="F22">
-        <v>1.02160328541359</v>
+        <v>0.710258739397716</v>
       </c>
       <c r="G22">
-        <v>0.0007991221635835551</v>
+        <v>0.375665025152685</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003504212050347455</v>
       </c>
       <c r="J22">
-        <v>0.1354461186328635</v>
+        <v>0.3030905425728747</v>
       </c>
       <c r="K22">
-        <v>1.562265400748316</v>
+        <v>0.2624698153177683</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1310061693978355</v>
       </c>
       <c r="M22">
-        <v>0.5563733301569371</v>
+        <v>1.420414201631502</v>
       </c>
       <c r="N22">
-        <v>0.7188211713347066</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.277008515595298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5394609087721918</v>
+      </c>
+      <c r="P22">
+        <v>0.6942302185402305</v>
+      </c>
+      <c r="Q22">
+        <v>1.379949262715115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.495544069748263</v>
+        <v>1.247478133224689</v>
       </c>
       <c r="C23">
-        <v>0.1637437062643272</v>
+        <v>0.2250839894033021</v>
       </c>
       <c r="D23">
-        <v>0.2174654922704065</v>
+        <v>0.2815355211341597</v>
       </c>
       <c r="E23">
-        <v>0.1431342278822747</v>
+        <v>0.159625428306704</v>
       </c>
       <c r="F23">
-        <v>1.0034129562966</v>
+        <v>0.6994889307040637</v>
       </c>
       <c r="G23">
-        <v>0.0008006577192889416</v>
+        <v>0.3708272381620077</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002951236967288828</v>
       </c>
       <c r="J23">
-        <v>0.1322717753793157</v>
+        <v>0.3026586372091487</v>
       </c>
       <c r="K23">
-        <v>1.504115373443085</v>
+        <v>0.263258972818015</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1280518779020312</v>
       </c>
       <c r="M23">
-        <v>0.5360043360479807</v>
+        <v>1.369391122092964</v>
       </c>
       <c r="N23">
-        <v>0.7360368586706425</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.247091541907992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5198556392237208</v>
+      </c>
+      <c r="P23">
+        <v>0.7047831964931106</v>
+      </c>
+      <c r="Q23">
+        <v>1.368676921857713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.277382734842661</v>
+        <v>1.070354881173756</v>
       </c>
       <c r="C24">
-        <v>0.1416659520627235</v>
+        <v>0.195554239922572</v>
       </c>
       <c r="D24">
-        <v>0.1889782544786982</v>
+        <v>0.2459055150082605</v>
       </c>
       <c r="E24">
-        <v>0.1271860967762493</v>
+        <v>0.1422447819811801</v>
       </c>
       <c r="F24">
-        <v>0.9380049807222548</v>
+        <v>0.6585058979017404</v>
       </c>
       <c r="G24">
-        <v>0.0008065847655599478</v>
+        <v>0.3520266909904777</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001688056072834954</v>
       </c>
       <c r="J24">
-        <v>0.1206321662410161</v>
+        <v>0.3008823285985542</v>
       </c>
       <c r="K24">
-        <v>1.285108713357346</v>
+        <v>0.2655285271570449</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1171162328738404</v>
       </c>
       <c r="M24">
-        <v>0.4595410909858515</v>
+        <v>1.176563903835387</v>
       </c>
       <c r="N24">
-        <v>0.8037597275588819</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.142733620956818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4461434059835625</v>
+      </c>
+      <c r="P24">
+        <v>0.7468225568432842</v>
+      </c>
+      <c r="Q24">
+        <v>1.324663668984471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.044470017037952</v>
+        <v>0.8787548949557049</v>
       </c>
       <c r="C25">
-        <v>0.1179486297314298</v>
+        <v>0.1642148013373941</v>
       </c>
       <c r="D25">
-        <v>0.1587856967544354</v>
+        <v>0.2082535085235122</v>
       </c>
       <c r="E25">
-        <v>0.110553450601536</v>
+        <v>0.1241112962215141</v>
       </c>
       <c r="F25">
-        <v>0.8741607548691661</v>
+        <v>0.6178171909536303</v>
       </c>
       <c r="G25">
-        <v>0.0008132307121856261</v>
+        <v>0.3340285240516891</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001088795291036782</v>
       </c>
       <c r="J25">
-        <v>0.1088073022292093</v>
+        <v>0.3003663010786966</v>
       </c>
       <c r="K25">
-        <v>1.050928358448658</v>
+        <v>0.2692858193668677</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1059658011472919</v>
       </c>
       <c r="M25">
-        <v>0.3782798175665505</v>
+        <v>0.9688356429720102</v>
       </c>
       <c r="N25">
-        <v>0.8818674805058153</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.047436754985512</v>
+        <v>0.3673014925569476</v>
+      </c>
+      <c r="P25">
+        <v>0.7953220975925319</v>
+      </c>
+      <c r="Q25">
+        <v>1.284928595007287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7427089193290328</v>
+        <v>0.7202837492574474</v>
       </c>
       <c r="C2">
-        <v>0.1384091977730293</v>
+        <v>0.1458360156285892</v>
       </c>
       <c r="D2">
-        <v>0.1804155142003623</v>
+        <v>0.1843182894497346</v>
       </c>
       <c r="E2">
-        <v>0.111100621559185</v>
+        <v>0.1118560062766889</v>
       </c>
       <c r="F2">
-        <v>0.5935242070488158</v>
+        <v>0.5739702800358373</v>
       </c>
       <c r="G2">
-        <v>0.3249771715799454</v>
+        <v>0.2921997527602542</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005462908493418794</v>
+        <v>0.0005495856319015502</v>
       </c>
       <c r="J2">
-        <v>0.3023624200743669</v>
+        <v>0.3223133773071467</v>
       </c>
       <c r="K2">
-        <v>0.2751631175967475</v>
+        <v>0.2556784427177483</v>
       </c>
       <c r="L2">
-        <v>0.09836422796941235</v>
+        <v>0.138098082552375</v>
       </c>
       <c r="M2">
-        <v>0.8155931878624187</v>
+        <v>0.0624454246549071</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09766760892568982</v>
       </c>
       <c r="O2">
-        <v>0.3094389309945527</v>
+        <v>0.8180295640439113</v>
       </c>
       <c r="P2">
-        <v>0.833103398488813</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.269529905423184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3109017756446377</v>
+      </c>
+      <c r="R2">
+        <v>0.820702686946273</v>
+      </c>
+      <c r="S2">
+        <v>1.214132565691372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6467994806207855</v>
+        <v>0.6308807700139312</v>
       </c>
       <c r="C3">
-        <v>0.1228639137456753</v>
+        <v>0.1264949018544144</v>
       </c>
       <c r="D3">
-        <v>0.1622679600507979</v>
+        <v>0.1655131966574714</v>
       </c>
       <c r="E3">
-        <v>0.1026110099040949</v>
+        <v>0.1032725462076662</v>
       </c>
       <c r="F3">
-        <v>0.5769081271175622</v>
+        <v>0.5593387655355428</v>
       </c>
       <c r="G3">
-        <v>0.3184189845441381</v>
+        <v>0.2881196749101349</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0008504660075789872</v>
+        <v>0.0006768175256568476</v>
       </c>
       <c r="J3">
-        <v>0.3036419588177779</v>
+        <v>0.3218553391126378</v>
       </c>
       <c r="K3">
-        <v>0.2785621028222778</v>
+        <v>0.2598455334892833</v>
       </c>
       <c r="L3">
-        <v>0.09342052649426336</v>
+        <v>0.1429773610736493</v>
       </c>
       <c r="M3">
-        <v>0.7117864432669876</v>
+        <v>0.06208278653363841</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09283590199567016</v>
       </c>
       <c r="O3">
-        <v>0.2705765630334263</v>
+        <v>0.714115845255435</v>
       </c>
       <c r="P3">
-        <v>0.8605457429983723</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.25802577125053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2717483787607051</v>
+      </c>
+      <c r="R3">
+        <v>0.8449149103711946</v>
+      </c>
+      <c r="S3">
+        <v>1.207077973930012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5875819708821268</v>
+        <v>0.5755179835350361</v>
       </c>
       <c r="C4">
-        <v>0.1134366294787981</v>
+        <v>0.1148361811062131</v>
       </c>
       <c r="D4">
-        <v>0.1512807595236723</v>
+        <v>0.1541411593505444</v>
       </c>
       <c r="E4">
-        <v>0.09751808665986772</v>
+        <v>0.09812555977594428</v>
       </c>
       <c r="F4">
-        <v>0.5673716113373857</v>
+        <v>0.5509164475117814</v>
       </c>
       <c r="G4">
-        <v>0.3148049799524699</v>
+        <v>0.28603364677938</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001189812198119089</v>
+        <v>0.0008846645071600712</v>
       </c>
       <c r="J4">
-        <v>0.3047130321513123</v>
+        <v>0.3216976073600648</v>
       </c>
       <c r="K4">
-        <v>0.280897283435193</v>
+        <v>0.2625825516913309</v>
       </c>
       <c r="L4">
-        <v>0.09050971425649834</v>
+        <v>0.1461189758115751</v>
       </c>
       <c r="M4">
-        <v>0.6479648080200491</v>
+        <v>0.06235245260656974</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08999058222869394</v>
       </c>
       <c r="O4">
-        <v>0.2468032472217985</v>
+        <v>0.6502102668208352</v>
       </c>
       <c r="P4">
-        <v>0.8781220243974897</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.2524272090252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2477903889912092</v>
+      </c>
+      <c r="R4">
+        <v>0.8605109003571521</v>
+      </c>
+      <c r="S4">
+        <v>1.203928124008399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5627907221162047</v>
+        <v>0.5522665760218501</v>
       </c>
       <c r="C5">
-        <v>0.1099345079007605</v>
+        <v>0.1104712295892654</v>
       </c>
       <c r="D5">
-        <v>0.1469122875485596</v>
+        <v>0.1496218089438344</v>
       </c>
       <c r="E5">
-        <v>0.09548406748966798</v>
+        <v>0.09607059795908768</v>
       </c>
       <c r="F5">
-        <v>0.563338470830999</v>
+        <v>0.5473132401709648</v>
       </c>
       <c r="G5">
-        <v>0.3131750440237155</v>
+        <v>0.2850349862651953</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001435329299984911</v>
+        <v>0.001083295475372559</v>
       </c>
       <c r="J5">
-        <v>0.3050863282618934</v>
+        <v>0.3215251637067453</v>
       </c>
       <c r="K5">
-        <v>0.2816904472321031</v>
+        <v>0.2635304482803491</v>
       </c>
       <c r="L5">
-        <v>0.08934128747613812</v>
+        <v>0.1473187671238207</v>
       </c>
       <c r="M5">
-        <v>0.6219612448912102</v>
+        <v>0.062542282050007</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08884800682312743</v>
       </c>
       <c r="O5">
-        <v>0.2371611707081485</v>
+        <v>0.6241692372032475</v>
       </c>
       <c r="P5">
-        <v>0.8854925752886178</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.249678015465193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2380720490944022</v>
+      </c>
+      <c r="R5">
+        <v>0.8670895072556881</v>
+      </c>
+      <c r="S5">
+        <v>1.202117372660439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5579639676385</v>
+        <v>0.5476979303263647</v>
       </c>
       <c r="C6">
-        <v>0.1097385099690484</v>
+        <v>0.1101606405005953</v>
       </c>
       <c r="D6">
-        <v>0.1462769817521519</v>
+        <v>0.1489632091342514</v>
       </c>
       <c r="E6">
-        <v>0.09516347512731116</v>
+        <v>0.09574679455736401</v>
       </c>
       <c r="F6">
-        <v>0.5623009124370739</v>
+        <v>0.5463474186992201</v>
       </c>
       <c r="G6">
-        <v>0.3125960488989605</v>
+        <v>0.2845701094840791</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001571758533976286</v>
+        <v>0.001228030601166274</v>
       </c>
       <c r="J6">
-        <v>0.3049895168683037</v>
+        <v>0.3213289207523573</v>
       </c>
       <c r="K6">
-        <v>0.2815578972341406</v>
+        <v>0.2634327722522301</v>
       </c>
       <c r="L6">
-        <v>0.08913399375662223</v>
+        <v>0.147377887594903</v>
       </c>
       <c r="M6">
-        <v>0.6176778202413118</v>
+        <v>0.06252779701695399</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08864489121399188</v>
       </c>
       <c r="O6">
-        <v>0.2355932011245727</v>
+        <v>0.6198801515541419</v>
       </c>
       <c r="P6">
-        <v>0.8867641331322975</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.248234897630311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.236491654798602</v>
+      </c>
+      <c r="R6">
+        <v>0.8682471239203764</v>
+      </c>
+      <c r="S6">
+        <v>1.200838652536987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5853152852723156</v>
+        <v>0.572991622711271</v>
       </c>
       <c r="C7">
-        <v>0.1144396642254009</v>
+        <v>0.1156700938102659</v>
       </c>
       <c r="D7">
-        <v>0.1514619015783438</v>
+        <v>0.1545005237518211</v>
       </c>
       <c r="E7">
-        <v>0.09753276141369582</v>
+        <v>0.09818577790619543</v>
       </c>
       <c r="F7">
-        <v>0.5662861149958687</v>
+        <v>0.5492030965589976</v>
       </c>
       <c r="G7">
-        <v>0.313924660110537</v>
+        <v>0.2874416078499351</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00143295345442862</v>
+        <v>0.001171047597396502</v>
       </c>
       <c r="J7">
-        <v>0.3042734857343277</v>
+        <v>0.3179926314223636</v>
       </c>
       <c r="K7">
-        <v>0.2801771310321683</v>
+        <v>0.2616547179037028</v>
       </c>
       <c r="L7">
-        <v>0.09045273912330742</v>
+        <v>0.1456302518867663</v>
       </c>
       <c r="M7">
-        <v>0.6477127599104335</v>
+        <v>0.06214445617736253</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08992687673346467</v>
       </c>
       <c r="O7">
-        <v>0.2467603356865027</v>
+        <v>0.6493549413464166</v>
       </c>
       <c r="P7">
-        <v>0.878332511714266</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.249638779420536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.247657442887018</v>
+      </c>
+      <c r="R7">
+        <v>0.8608563868846204</v>
+      </c>
+      <c r="S7">
+        <v>1.199484835346524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.707123253669522</v>
+        <v>0.6860112593964516</v>
       </c>
       <c r="C8">
-        <v>0.1344253194099849</v>
+        <v>0.1398454634707349</v>
       </c>
       <c r="D8">
-        <v>0.1744435378281395</v>
+        <v>0.1787113673056808</v>
       </c>
       <c r="E8">
-        <v>0.1082036487110436</v>
+        <v>0.1090778807653834</v>
       </c>
       <c r="F8">
-        <v>0.5862921298950283</v>
+        <v>0.5653359557087541</v>
       </c>
       <c r="G8">
-        <v>0.3214952440552707</v>
+        <v>0.2971610653994219</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0009066511425315227</v>
+        <v>0.0009090030607916688</v>
       </c>
       <c r="J8">
-        <v>0.3021593735768491</v>
+        <v>0.311017700773732</v>
       </c>
       <c r="K8">
-        <v>0.2753225472824887</v>
+        <v>0.2553857278392115</v>
       </c>
       <c r="L8">
-        <v>0.0965786725752622</v>
+        <v>0.1389338186443858</v>
       </c>
       <c r="M8">
-        <v>0.7799456437251138</v>
+        <v>0.06174779427630739</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09589834814183718</v>
       </c>
       <c r="O8">
-        <v>0.2961339909517164</v>
+        <v>0.7803220687696921</v>
       </c>
       <c r="P8">
-        <v>0.8426084904054996</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.261627266563409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2971957391497213</v>
+      </c>
+      <c r="R8">
+        <v>0.8295608848928353</v>
+      </c>
+      <c r="S8">
+        <v>1.20226045278406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9469341449467947</v>
+        <v>0.9084678606949979</v>
       </c>
       <c r="C9">
-        <v>0.1727766367127685</v>
+        <v>0.1879085631997839</v>
       </c>
       <c r="D9">
-        <v>0.2204062448981148</v>
+        <v>0.2265848189218787</v>
       </c>
       <c r="E9">
-        <v>0.1300675557018458</v>
+        <v>0.1312367979366869</v>
       </c>
       <c r="F9">
-        <v>0.6329221031969681</v>
+        <v>0.6058148972307507</v>
       </c>
       <c r="G9">
-        <v>0.3413349160802781</v>
+        <v>0.3129347865756955</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0007975339154846495</v>
+        <v>0.001047877935151043</v>
       </c>
       <c r="J9">
-        <v>0.3011450649586394</v>
+        <v>0.3105629488807438</v>
       </c>
       <c r="K9">
-        <v>0.269138560960009</v>
+        <v>0.2466584782164425</v>
       </c>
       <c r="L9">
-        <v>0.1097150700840714</v>
+        <v>0.1280104294215523</v>
       </c>
       <c r="M9">
-        <v>1.038620464615491</v>
+        <v>0.06544565312606743</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1087289616206917</v>
       </c>
       <c r="O9">
-        <v>0.39362879092333</v>
+        <v>1.038526780122993</v>
       </c>
       <c r="P9">
-        <v>0.7782121810957747</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.302221166565602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3952783816858272</v>
+      </c>
+      <c r="R9">
+        <v>0.7734044626754972</v>
+      </c>
+      <c r="S9">
+        <v>1.2285474466522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.120666184818305</v>
+        <v>1.066934670607594</v>
       </c>
       <c r="C10">
-        <v>0.2023255991018544</v>
+        <v>0.2237090123675358</v>
       </c>
       <c r="D10">
-        <v>0.2552429778477858</v>
+        <v>0.263983003505686</v>
       </c>
       <c r="E10">
-        <v>0.1468641215019169</v>
+        <v>0.1485358873099862</v>
       </c>
       <c r="F10">
-        <v>0.6704661198177035</v>
+        <v>0.6345415757563444</v>
       </c>
       <c r="G10">
-        <v>0.3578762207647372</v>
+        <v>0.3403074765469682</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001731208841990295</v>
+        <v>0.002038783473968131</v>
       </c>
       <c r="J10">
-        <v>0.301728266765565</v>
+        <v>0.2935153712038812</v>
       </c>
       <c r="K10">
-        <v>0.2655892717151787</v>
+        <v>0.239583808083875</v>
       </c>
       <c r="L10">
-        <v>0.120075665191159</v>
+        <v>0.1201340638359127</v>
       </c>
       <c r="M10">
-        <v>1.228762510314397</v>
+        <v>0.06991461172080804</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.118803967750317</v>
       </c>
       <c r="O10">
-        <v>0.4659975108432022</v>
+        <v>1.22449040076026</v>
       </c>
       <c r="P10">
-        <v>0.7348974889068103</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.338956973010539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4674686898855498</v>
+      </c>
+      <c r="R10">
+        <v>0.7371625355493308</v>
+      </c>
+      <c r="S10">
+        <v>1.243464979028161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.196128324322956</v>
+        <v>1.132183841030752</v>
       </c>
       <c r="C11">
-        <v>0.2177839585311006</v>
+        <v>0.2396955158552316</v>
       </c>
       <c r="D11">
-        <v>0.2717263970270096</v>
+        <v>0.283570955722567</v>
       </c>
       <c r="E11">
-        <v>0.1547509173322865</v>
+        <v>0.1571399687347395</v>
       </c>
       <c r="F11">
-        <v>0.6867917072185108</v>
+        <v>0.6401635852004901</v>
       </c>
       <c r="G11">
-        <v>0.3645974100539249</v>
+        <v>0.3776853281211743</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002750119471683021</v>
+        <v>0.003109080245138784</v>
       </c>
       <c r="J11">
-        <v>0.3016491018819067</v>
+        <v>0.2595510065553555</v>
       </c>
       <c r="K11">
-        <v>0.2631350810920381</v>
+        <v>0.2332646441572912</v>
       </c>
       <c r="L11">
-        <v>0.1249011439893195</v>
+        <v>0.115645434949462</v>
       </c>
       <c r="M11">
-        <v>1.315507160150133</v>
+        <v>0.07101332588231557</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1234225921960928</v>
       </c>
       <c r="O11">
-        <v>0.4992546970357878</v>
+        <v>1.302751501135049</v>
       </c>
       <c r="P11">
-        <v>0.7165144758537885</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.353235525245509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4996328439662321</v>
+      </c>
+      <c r="R11">
+        <v>0.7240775813609623</v>
+      </c>
+      <c r="S11">
+        <v>1.230434368924548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.226398940488167</v>
+        <v>1.158110426366136</v>
       </c>
       <c r="C12">
-        <v>0.2227264336807337</v>
+        <v>0.2444190273214701</v>
       </c>
       <c r="D12">
-        <v>0.2777942622940799</v>
+        <v>0.2910678268452358</v>
       </c>
       <c r="E12">
-        <v>0.1577279669537148</v>
+        <v>0.16045305335291</v>
       </c>
       <c r="F12">
-        <v>0.6940039578300272</v>
+        <v>0.6424249196660696</v>
       </c>
       <c r="G12">
-        <v>0.3679703295223504</v>
+        <v>0.3966274461766801</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.002973680435636616</v>
+        <v>0.003299896813293124</v>
       </c>
       <c r="J12">
-        <v>0.3020507133740722</v>
+        <v>0.2456546854004529</v>
       </c>
       <c r="K12">
-        <v>0.2628709176068682</v>
+        <v>0.2311788452571761</v>
       </c>
       <c r="L12">
-        <v>0.1267916854571283</v>
+        <v>0.1140976720425186</v>
       </c>
       <c r="M12">
-        <v>1.348290722804279</v>
+        <v>0.07158563961609232</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1252246859955832</v>
       </c>
       <c r="O12">
-        <v>0.5118066912152415</v>
+        <v>1.331461973220428</v>
       </c>
       <c r="P12">
-        <v>0.7094820319296211</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.361300216941089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5116355364543779</v>
+      </c>
+      <c r="R12">
+        <v>0.719253992222793</v>
+      </c>
+      <c r="S12">
+        <v>1.225802615310926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.22023139601481</v>
+        <v>1.15289000315579</v>
       </c>
       <c r="C13">
-        <v>0.2214686426381292</v>
+        <v>0.2432042966932357</v>
       </c>
       <c r="D13">
-        <v>0.2764432411395603</v>
+        <v>0.2893957649255441</v>
       </c>
       <c r="E13">
-        <v>0.1570781645578023</v>
+        <v>0.1597277405384148</v>
       </c>
       <c r="F13">
-        <v>0.6926231647743464</v>
+        <v>0.6421430006798445</v>
       </c>
       <c r="G13">
-        <v>0.3673881369168583</v>
+        <v>0.3925104874440422</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002881804486160711</v>
+        <v>0.00320620468312427</v>
       </c>
       <c r="J13">
-        <v>0.302037412034494</v>
+        <v>0.2487211180681683</v>
       </c>
       <c r="K13">
-        <v>0.263049351734189</v>
+        <v>0.2317485034964157</v>
       </c>
       <c r="L13">
-        <v>0.126390441249626</v>
+        <v>0.1144688134190694</v>
       </c>
       <c r="M13">
-        <v>1.341212428296927</v>
+        <v>0.07151284637519595</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1248429374151172</v>
       </c>
       <c r="O13">
-        <v>0.5090870853660263</v>
+        <v>1.325299710262158</v>
       </c>
       <c r="P13">
-        <v>0.7109465396247465</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.360022450244003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5090402570993007</v>
+      </c>
+      <c r="R13">
+        <v>0.7202047921530941</v>
+      </c>
+      <c r="S13">
+        <v>1.227329542777923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.198768071170747</v>
+        <v>1.134471706796745</v>
       </c>
       <c r="C14">
-        <v>0.2181084213076616</v>
+        <v>0.2400004091927457</v>
       </c>
       <c r="D14">
-        <v>0.2722067887243185</v>
+        <v>0.2841630318703778</v>
       </c>
       <c r="E14">
-        <v>0.1549921398471845</v>
+        <v>0.1574074384243289</v>
       </c>
       <c r="F14">
-        <v>0.687458196649402</v>
+        <v>0.6404377752309358</v>
       </c>
       <c r="G14">
-        <v>0.3649360813172677</v>
+        <v>0.37922327964705</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002749584578277897</v>
+        <v>0.003102049387289973</v>
       </c>
       <c r="J14">
-        <v>0.3017131910158639</v>
+        <v>0.2584448889978646</v>
       </c>
       <c r="K14">
-        <v>0.2631649447497111</v>
+        <v>0.2331447887721474</v>
       </c>
       <c r="L14">
-        <v>0.1250591641558785</v>
+        <v>0.115534547274434</v>
       </c>
       <c r="M14">
-        <v>1.318196707867173</v>
+        <v>0.07108181063060925</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1235735373312181</v>
       </c>
       <c r="O14">
-        <v>0.5002803885202169</v>
+        <v>1.305123355177869</v>
       </c>
       <c r="P14">
-        <v>0.7159146823969174</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.354093764992484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5006160433660654</v>
+      </c>
+      <c r="R14">
+        <v>0.7236436069137859</v>
+      </c>
+      <c r="S14">
+        <v>1.230281305830331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.184927960336807</v>
+        <v>1.122454167151261</v>
       </c>
       <c r="C15">
-        <v>0.2164325333605888</v>
+        <v>0.238416152253933</v>
       </c>
       <c r="D15">
-        <v>0.2697004503251321</v>
+        <v>0.2810833467000435</v>
       </c>
       <c r="E15">
-        <v>0.1537325738902808</v>
+        <v>0.1560132951023903</v>
       </c>
       <c r="F15">
-        <v>0.6839607793717022</v>
+        <v>0.6389562136553195</v>
       </c>
       <c r="G15">
-        <v>0.3631539316596175</v>
+        <v>0.3713376136902014</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002760470867393394</v>
+        <v>0.003147890067935144</v>
       </c>
       <c r="J15">
-        <v>0.3013726780784438</v>
+        <v>0.2641768749296389</v>
       </c>
       <c r="K15">
-        <v>0.2629984054169263</v>
+        <v>0.2337496349559807</v>
       </c>
       <c r="L15">
-        <v>0.1242332393766929</v>
+        <v>0.1161081394000476</v>
       </c>
       <c r="M15">
-        <v>1.304134828675842</v>
+        <v>0.07071632807006623</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1227841961528497</v>
       </c>
       <c r="O15">
-        <v>0.4949195804662452</v>
+        <v>1.29268776388696</v>
       </c>
       <c r="P15">
-        <v>0.7190606187475055</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.349570865593989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4954719476175313</v>
+      </c>
+      <c r="R15">
+        <v>0.7259357245305438</v>
+      </c>
+      <c r="S15">
+        <v>1.230955822791316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.109940013402593</v>
+        <v>1.056936528516104</v>
       </c>
       <c r="C16">
-        <v>0.2044857693266948</v>
+        <v>0.2261245513996926</v>
       </c>
       <c r="D16">
-        <v>0.2548755151684503</v>
+        <v>0.2634643903078739</v>
       </c>
       <c r="E16">
-        <v>0.1464752499732356</v>
+        <v>0.148110711817008</v>
       </c>
       <c r="F16">
-        <v>0.6664471033582231</v>
+        <v>0.6311852951180228</v>
       </c>
       <c r="G16">
-        <v>0.3549842181576466</v>
+        <v>0.3359040786105822</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0023536766670329</v>
+        <v>0.002803982493604806</v>
       </c>
       <c r="J16">
-        <v>0.3004814561328359</v>
+        <v>0.2943416422475735</v>
       </c>
       <c r="K16">
-        <v>0.2636949918081548</v>
+        <v>0.2380948567130794</v>
       </c>
       <c r="L16">
-        <v>0.1196450275428731</v>
+        <v>0.1197589385280491</v>
       </c>
       <c r="M16">
-        <v>1.223376665807393</v>
+        <v>0.06907587412575289</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1183855463278434</v>
       </c>
       <c r="O16">
-        <v>0.4640754764689845</v>
+        <v>1.219551081561548</v>
       </c>
       <c r="P16">
-        <v>0.7368027388980778</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.33020142794058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4656029331095439</v>
+      </c>
+      <c r="R16">
+        <v>0.7390670479741814</v>
+      </c>
+      <c r="S16">
+        <v>1.23655315519531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.063892270872458</v>
+        <v>1.015953580402993</v>
       </c>
       <c r="C17">
-        <v>0.1972029332307841</v>
+        <v>0.2180841609913386</v>
       </c>
       <c r="D17">
-        <v>0.2458407577800585</v>
+        <v>0.2531438338750434</v>
       </c>
       <c r="E17">
-        <v>0.1420691578091109</v>
+        <v>0.1434166992398893</v>
       </c>
       <c r="F17">
-        <v>0.6559568206006219</v>
+        <v>0.6251903546074047</v>
       </c>
       <c r="G17">
-        <v>0.3501362336913658</v>
+        <v>0.320357312821578</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002169048080201463</v>
+        <v>0.002643174221891975</v>
       </c>
       <c r="J17">
-        <v>0.3000343193434674</v>
+        <v>0.3084493386786633</v>
       </c>
       <c r="K17">
-        <v>0.2642136365895453</v>
+        <v>0.2403323722572779</v>
       </c>
       <c r="L17">
-        <v>0.1168780261915714</v>
+        <v>0.1219012612447496</v>
       </c>
       <c r="M17">
-        <v>1.173860703709011</v>
+        <v>0.06797416081498753</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1157177226123167</v>
       </c>
       <c r="O17">
-        <v>0.4452059414373579</v>
+        <v>1.173261192291562</v>
       </c>
       <c r="P17">
-        <v>0.7479144177394552</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.318872904987643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4471063962268502</v>
+      </c>
+      <c r="R17">
+        <v>0.7477995060032185</v>
+      </c>
+      <c r="S17">
+        <v>1.236692978026412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.03913490995302</v>
+        <v>0.9938163928252948</v>
       </c>
       <c r="C18">
-        <v>0.1920684457106461</v>
+        <v>0.2122188061449748</v>
       </c>
       <c r="D18">
-        <v>0.2404518631384605</v>
+        <v>0.2471587931086532</v>
       </c>
       <c r="E18">
-        <v>0.139513983158416</v>
+        <v>0.1407327658119115</v>
       </c>
       <c r="F18">
-        <v>0.6509130459491459</v>
+        <v>0.6221934096242521</v>
       </c>
       <c r="G18">
-        <v>0.3481518385203231</v>
+        <v>0.3141505359273467</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001840087260987389</v>
+        <v>0.002271212803154121</v>
       </c>
       <c r="J18">
-        <v>0.3001946019934749</v>
+        <v>0.3149054439926857</v>
       </c>
       <c r="K18">
-        <v>0.2651679033780283</v>
+        <v>0.2420397167836832</v>
       </c>
       <c r="L18">
-        <v>0.1153395307141523</v>
+        <v>0.1233065090370076</v>
       </c>
       <c r="M18">
-        <v>1.145302638211092</v>
+        <v>0.06753564630424336</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1142302802827331</v>
       </c>
       <c r="O18">
-        <v>0.4342955857588464</v>
+        <v>1.146049180338281</v>
       </c>
       <c r="P18">
-        <v>0.7541862529204906</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.314935304333702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4363314736150627</v>
+      </c>
+      <c r="R18">
+        <v>0.7527681818603789</v>
+      </c>
+      <c r="S18">
+        <v>1.237905815571452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.029402692546199</v>
+        <v>0.9849530913879505</v>
       </c>
       <c r="C19">
-        <v>0.1910738875302798</v>
+        <v>0.2110241247843163</v>
       </c>
       <c r="D19">
-        <v>0.2387955138429874</v>
+        <v>0.245328716834166</v>
       </c>
       <c r="E19">
-        <v>0.1386803205671434</v>
+        <v>0.1398621231006842</v>
       </c>
       <c r="F19">
-        <v>0.6485268333577636</v>
+        <v>0.6204280745607136</v>
       </c>
       <c r="G19">
-        <v>0.346914539329795</v>
+        <v>0.3118152347732845</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001918801403173021</v>
+        <v>0.002373909171936361</v>
       </c>
       <c r="J19">
-        <v>0.2999605523976285</v>
+        <v>0.3164337637374075</v>
       </c>
       <c r="K19">
-        <v>0.2650157562115893</v>
+        <v>0.2421510789166845</v>
       </c>
       <c r="L19">
-        <v>0.1147936784237942</v>
+        <v>0.1236113015778191</v>
       </c>
       <c r="M19">
-        <v>1.135700531661115</v>
+        <v>0.06721184252103818</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1137007054455808</v>
       </c>
       <c r="O19">
-        <v>0.4306624733941433</v>
+        <v>1.136820380566547</v>
       </c>
       <c r="P19">
-        <v>0.7564791400308906</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.311799349958022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4327319494052446</v>
+      </c>
+      <c r="R19">
+        <v>0.7547052407808934</v>
+      </c>
+      <c r="S19">
+        <v>1.236353663784499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.068933035973942</v>
+        <v>1.02047980071552</v>
       </c>
       <c r="C20">
-        <v>0.1979009352662757</v>
+        <v>0.2188748500092288</v>
       </c>
       <c r="D20">
-        <v>0.2467835483500238</v>
+        <v>0.254207597175423</v>
       </c>
       <c r="E20">
-        <v>0.1425335669990773</v>
+        <v>0.1439077965130089</v>
       </c>
       <c r="F20">
-        <v>0.6571346590109499</v>
+        <v>0.6259424155444364</v>
       </c>
       <c r="G20">
-        <v>0.3507047200942282</v>
+        <v>0.3218560500616192</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002166776052471953</v>
+        <v>0.002634738835332051</v>
       </c>
       <c r="J20">
-        <v>0.3001081170923428</v>
+        <v>0.3071785642682201</v>
       </c>
       <c r="K20">
-        <v>0.2642038501421347</v>
+        <v>0.2401546669403984</v>
       </c>
       <c r="L20">
-        <v>0.1171736389816971</v>
+        <v>0.1216935572018425</v>
       </c>
       <c r="M20">
-        <v>1.179124200414748</v>
+        <v>0.06811201524905464</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1160034055906465</v>
       </c>
       <c r="O20">
-        <v>0.447206849329298</v>
+        <v>1.178234133889333</v>
       </c>
       <c r="P20">
-        <v>0.7467068960946754</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.320244911064535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4490757237558469</v>
+      </c>
+      <c r="R20">
+        <v>0.746823161174877</v>
+      </c>
+      <c r="S20">
+        <v>1.236978736611263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.2031117361432</v>
+        <v>1.136867251545738</v>
       </c>
       <c r="C21">
-        <v>0.2201710609593874</v>
+        <v>0.2412110539412282</v>
       </c>
       <c r="D21">
-        <v>0.273688624137705</v>
+        <v>0.2866132694716015</v>
       </c>
       <c r="E21">
-        <v>0.1556456148696981</v>
+        <v>0.1583003600514559</v>
       </c>
       <c r="F21">
-        <v>0.687968357271032</v>
+        <v>0.6376665483392969</v>
       </c>
       <c r="G21">
-        <v>0.3648224192235929</v>
+        <v>0.3915270064631073</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.003036323946660424</v>
+        <v>0.003428616562621833</v>
       </c>
       <c r="J21">
-        <v>0.3013826476038872</v>
+        <v>0.2472992473741584</v>
       </c>
       <c r="K21">
-        <v>0.26243649891871</v>
+        <v>0.2313182231921935</v>
       </c>
       <c r="L21">
-        <v>0.1254091897916467</v>
+        <v>0.1147479642818308</v>
       </c>
       <c r="M21">
-        <v>1.325050860129465</v>
+        <v>0.07060254295218726</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.123880542885459</v>
       </c>
       <c r="O21">
-        <v>0.5029494124330114</v>
+        <v>1.308874042455955</v>
       </c>
       <c r="P21">
-        <v>0.7146981357699183</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.353175566612379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.502827041384073</v>
+      </c>
+      <c r="R21">
+        <v>0.7236586623408634</v>
+      </c>
+      <c r="S21">
+        <v>1.220918219050418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.293158564081978</v>
+        <v>1.214479369223795</v>
       </c>
       <c r="C22">
-        <v>0.2335216875141271</v>
+        <v>0.2541269712656913</v>
       </c>
       <c r="D22">
-        <v>0.2911760281327815</v>
+        <v>0.3080897934248554</v>
       </c>
       <c r="E22">
-        <v>0.1643204553914259</v>
+        <v>0.1679094391953555</v>
       </c>
       <c r="F22">
-        <v>0.710258739397716</v>
+        <v>0.6461459618700331</v>
       </c>
       <c r="G22">
-        <v>0.375665025152685</v>
+        <v>0.4469186550583828</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003504212050347455</v>
+        <v>0.003733855297056721</v>
       </c>
       <c r="J22">
-        <v>0.3030905425728747</v>
+        <v>0.2153608461756349</v>
       </c>
       <c r="K22">
-        <v>0.2624698153177683</v>
+        <v>0.2262071515497119</v>
       </c>
       <c r="L22">
-        <v>0.1310061693978355</v>
+        <v>0.1106539522409076</v>
       </c>
       <c r="M22">
-        <v>1.420414201631502</v>
+        <v>0.07272692488832533</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1292257037034403</v>
       </c>
       <c r="O22">
-        <v>0.5394609087721918</v>
+        <v>1.393012306007932</v>
       </c>
       <c r="P22">
-        <v>0.6942302185402305</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.379949262715115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5378261130452557</v>
+      </c>
+      <c r="R22">
+        <v>0.7094510839361661</v>
+      </c>
+      <c r="S22">
+        <v>1.212333773004715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.247478133224689</v>
+        <v>1.176218810259684</v>
       </c>
       <c r="C23">
-        <v>0.2250839894033021</v>
+        <v>0.2464649571553679</v>
       </c>
       <c r="D23">
-        <v>0.2815355211341597</v>
+        <v>0.2958011260629263</v>
       </c>
       <c r="E23">
-        <v>0.159625428306704</v>
+        <v>0.1625857923174934</v>
       </c>
       <c r="F23">
-        <v>0.6994889307040637</v>
+        <v>0.6444284951046697</v>
       </c>
       <c r="G23">
-        <v>0.3708272381620077</v>
+        <v>0.4108332296187029</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.002951236967288828</v>
+        <v>0.003214045755297157</v>
       </c>
       <c r="J23">
-        <v>0.3026586372091487</v>
+        <v>0.2367929558173785</v>
       </c>
       <c r="K23">
-        <v>0.263258972818015</v>
+        <v>0.2302379583519318</v>
       </c>
       <c r="L23">
-        <v>0.1280518779020312</v>
+        <v>0.1132423574068895</v>
       </c>
       <c r="M23">
-        <v>1.369391122092964</v>
+        <v>0.07214066088574</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1264248084520574</v>
       </c>
       <c r="O23">
-        <v>0.5198556392237208</v>
+        <v>1.349684724982097</v>
       </c>
       <c r="P23">
-        <v>0.7047831964931106</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.368676921857713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5192903183728461</v>
+      </c>
+      <c r="R23">
+        <v>0.7159611260931733</v>
+      </c>
+      <c r="S23">
+        <v>1.224193221465455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.070354881173756</v>
+        <v>1.022063559050281</v>
       </c>
       <c r="C24">
-        <v>0.195554239922572</v>
+        <v>0.216269687387225</v>
       </c>
       <c r="D24">
-        <v>0.2459055150082605</v>
+        <v>0.2532642816333777</v>
       </c>
       <c r="E24">
-        <v>0.1422447819811801</v>
+        <v>0.1436056854340215</v>
       </c>
       <c r="F24">
-        <v>0.6585058979017404</v>
+        <v>0.6274639514290214</v>
       </c>
       <c r="G24">
-        <v>0.3520266909904777</v>
+        <v>0.3227189604994294</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001688056072834954</v>
+        <v>0.002056935388078607</v>
       </c>
       <c r="J24">
-        <v>0.3008823285985542</v>
+        <v>0.3085171173113537</v>
       </c>
       <c r="K24">
-        <v>0.2655285271570449</v>
+        <v>0.2414426661447813</v>
       </c>
       <c r="L24">
-        <v>0.1171162328738404</v>
+        <v>0.1222287745670698</v>
       </c>
       <c r="M24">
-        <v>1.176563903835387</v>
+        <v>0.06852611245995988</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1159505063192512</v>
       </c>
       <c r="O24">
-        <v>0.4461434059835625</v>
+        <v>1.17580129548756</v>
       </c>
       <c r="P24">
-        <v>0.7468225568432842</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.324663668984471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4480248648249443</v>
+      </c>
+      <c r="R24">
+        <v>0.7466554742838269</v>
+      </c>
+      <c r="S24">
+        <v>1.241693205243152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8787548949557049</v>
+        <v>0.8455965150156715</v>
       </c>
       <c r="C25">
-        <v>0.1642148013373941</v>
+        <v>0.1771721370604808</v>
       </c>
       <c r="D25">
-        <v>0.2082535085235122</v>
+        <v>0.213652751809974</v>
       </c>
       <c r="E25">
-        <v>0.1241112962215141</v>
+        <v>0.1251338081668827</v>
       </c>
       <c r="F25">
-        <v>0.6178171909536303</v>
+        <v>0.5934135994642489</v>
       </c>
       <c r="G25">
-        <v>0.3340285240516891</v>
+        <v>0.3034870704556241</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001088795291036782</v>
+        <v>0.001378629773180151</v>
       </c>
       <c r="J25">
-        <v>0.3003663010786966</v>
+        <v>0.3142104552383103</v>
       </c>
       <c r="K25">
-        <v>0.2692858193668677</v>
+        <v>0.2479792166974697</v>
       </c>
       <c r="L25">
-        <v>0.1059658011472919</v>
+        <v>0.1304765646362238</v>
       </c>
       <c r="M25">
-        <v>0.9688356429720102</v>
+        <v>0.0637205917922401</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1050754547388948</v>
       </c>
       <c r="O25">
-        <v>0.3673014925569476</v>
+        <v>0.9697803777845877</v>
       </c>
       <c r="P25">
-        <v>0.7953220975925319</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.284928595007287</v>
+        <v>0.3689346248140879</v>
+      </c>
+      <c r="R25">
+        <v>0.7882351623539883</v>
+      </c>
+      <c r="S25">
+        <v>1.217947927764797</v>
       </c>
     </row>
   </sheetData>
